--- a/production/output/2024M02_HR_REPORT_FINAL.xlsx
+++ b/production/output/2024M02_HR_REPORT_FINAL.xlsx
@@ -57,7 +57,7 @@
     <t>Maintained by Peter Styliadis in the Education department. Contact at 555-555-0000 or Peter@myemail.com.</t>
   </si>
   <si>
-    <t>Report created on Monday, February 19, 2024</t>
+    <t>Report created on Tuesday, February 20, 2024</t>
   </si>
   <si>
     <t>List of Employee Information</t>
